--- a/CANDELARIA.xlsx
+++ b/CANDELARIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC6F0AE-CD2B-432E-9C43-EC4E09183002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7E97B6-FC53-4335-8BE9-1AE8E6034571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1062,7 +1049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1122,36 +1109,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,14 +1153,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1241,7 +1199,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{0D3F79C5-2909-4239-A144-095F46361EF9}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{14D709F9-7658-49FA-9996-0925E6E6E524}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1271,10 +1229,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA32BBF-B3D5-4BE7-9ED2-58ACC9FBD49E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E40435-AE80-4948-8FB8-303BBA3C57CB}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1270,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC82111-2407-485B-A21F-5A0337C6FCA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4C8D91-19E6-49DD-95DC-A2F485EFB357}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1333,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AF5942-914F-44E8-AA0C-C572900F1432}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2D1A31-B2F6-4129-96C6-619194C6091A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1352,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1457BC6-9D86-4E8A-CF4F-AC65E9E2C2F3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E11B5C-F388-1826-22F9-EE5119B3F1A2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1443,7 +1401,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452A7FFB-F804-C98C-D61F-36A6562CA566}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70576E1D-DB08-367D-6584-B42457B0895E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1462,7 +1420,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAB73A4-31B2-7BB7-CC25-CD5FD8F7EF9D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B34C2DE-DED6-B13C-1089-649F103132A8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1451,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6204560-2947-0861-C99F-115C94B7B508}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5CE9D9-573B-3D98-0165-ECF7E9FCA337}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1524,7 +1482,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F910569D-2722-4EDB-3C27-3DF7BF122B4F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBC8BE6-E054-3C3C-7900-7A2742C3070F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1567,7 +1525,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F753EB71-FEF9-47E6-AE9B-4378F322E084}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EA332A-3A5E-4A5C-AD36-313F56C630F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1563,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB609F23-46A9-451E-96A0-049F045E325A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E302FCB4-44A2-49E1-B7F6-FAD5BD81ED13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1606,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169522E7-C632-4E67-9DA0-21968EB0BC73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6A76F9-BFB0-49F8-8F6E-29A858BAF553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025E04C4-9D94-47E8-AB88-69AE86097713}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F891A10-965F-43D9-87B9-B309E0CF8228}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1973,98 +1931,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5330,19 +5288,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5365,46 +5323,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5429,54 +5387,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5487,17 +5446,17 @@
       <c r="B2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45901</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="24">
         <v>26314</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="24">
         <v>1567</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -5506,22 +5465,22 @@
       <c r="I2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="25" t="s">
         <v>299</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="25" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5552,25 +5511,24 @@
       <c r="B1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="30">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="27">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="30">
         <v>17</v>
       </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="33">
-        <v>17</v>
-      </c>
-      <c r="C2" s="31">
+      <c r="C2" s="28">
         <v>1.124189921967994E-3</v>
       </c>
     </row>

--- a/CANDELARIA.xlsx
+++ b/CANDELARIA.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7E97B6-FC53-4335-8BE9-1AE8E6034571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF513BFB-BE72-4F36-9217-E10F6E6568AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="307">
   <si>
     <t>COMARCA</t>
   </si>
@@ -935,6 +936,18 @@
   </si>
   <si>
     <t>CANDELÁRIA</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -944,7 +957,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,6 +1010,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1011,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,6 +1066,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1112,9 +1144,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,12 +1226,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{14D709F9-7658-49FA-9996-0925E6E6E524}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{7D0A09F0-91E1-4107-B560-CD87DF9A0312}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1229,10 +1265,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E40435-AE80-4948-8FB8-303BBA3C57CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBEE96D-6C14-4431-9C9F-501C5C9094DF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +1306,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4C8D91-19E6-49DD-95DC-A2F485EFB357}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C87FD03-9E89-4D3B-ADBD-72E78D569B31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1369,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2D1A31-B2F6-4129-96C6-619194C6091A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651A38C4-C7DF-4E04-80E6-E7AF68D1D5AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1388,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E11B5C-F388-1826-22F9-EE5119B3F1A2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FDA5F7-9A1C-D48A-EDB1-51F68AEFADE2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1401,7 +1437,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70576E1D-DB08-367D-6584-B42457B0895E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBFD21E-93A4-92E4-DE3E-D64B6BA1051A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1420,7 +1456,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B34C2DE-DED6-B13C-1089-649F103132A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732040CB-D24E-BB07-D822-F238C0F6E424}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1451,7 +1487,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5CE9D9-573B-3D98-0165-ECF7E9FCA337}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8671D0-EB36-073C-29A3-B192960084AC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1482,7 +1518,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBC8BE6-E054-3C3C-7900-7A2742C3070F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2FEB7E-7D86-AC26-2BCE-20C25F95E103}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1525,7 +1561,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EA332A-3A5E-4A5C-AD36-313F56C630F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002330EF-A7CB-496C-9B4E-FF4640314427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1599,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E302FCB4-44A2-49E1-B7F6-FAD5BD81ED13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4B5B60-E06D-4E9E-A321-4C0355030E77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1642,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6A76F9-BFB0-49F8-8F6E-29A858BAF553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CABA5D-8B11-4D6E-85CD-F0C4F33E8D42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F891A10-965F-43D9-87B9-B309E0CF8228}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA574E59-BF4F-4E0D-813F-DCF52F99B078}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1931,98 +1967,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="32"/>
-    <col min="6" max="6" width="2" style="32" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="32"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="31"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="31"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="31"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="31"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="31"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="31"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="31"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="31"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="31"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="31"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="31"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="31"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="31"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="31"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="31"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="31"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="31"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="31"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="31"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="31"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="31"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="31"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="31"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="31"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="31"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="31"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="31"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="31"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="31"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5535,4 +5571,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CANDELARIA.xlsx
+++ b/CANDELARIA.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF513BFB-BE72-4F36-9217-E10F6E6568AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7AE252E-FDBF-4F65-83FC-5ACF495C6ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="304">
   <si>
     <t>COMARCA</t>
   </si>
@@ -927,15 +926,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>CANDELÁRIA</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1146,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,21 +1201,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1235,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{7D0A09F0-91E1-4107-B560-CD87DF9A0312}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C4B71400-E3BB-4144-AAD1-9DBC7D830EBE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1265,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBEE96D-6C14-4431-9C9F-501C5C9094DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB228EB-FAE3-47CE-B065-A174464472BD}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C87FD03-9E89-4D3B-ADBD-72E78D569B31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E64C689-4371-474E-B9FF-AF7213B5B99D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651A38C4-C7DF-4E04-80E6-E7AF68D1D5AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A6B0DA-497F-4C12-8782-0BEE822AA2B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FDA5F7-9A1C-D48A-EDB1-51F68AEFADE2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082BD6B1-7705-052C-75AB-4B57A7276AE3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBFD21E-93A4-92E4-DE3E-D64B6BA1051A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD8A91C-449D-20D1-ABE1-13FA4D2E2D40}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1456,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732040CB-D24E-BB07-D822-F238C0F6E424}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66B791B-6F72-3322-2AC8-7CBAEA1A6DA7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1487,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8671D0-EB36-073C-29A3-B192960084AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A283AD38-1561-8DDE-F023-FE7DCA036B74}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1518,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2FEB7E-7D86-AC26-2BCE-20C25F95E103}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4341BC9-9541-4D0E-C562-7CC28BB4F385}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1561,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002330EF-A7CB-496C-9B4E-FF4640314427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF960652-05E2-455E-B75A-032AE91ADF5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4B5B60-E06D-4E9E-A321-4C0355030E77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A477188C-DE3C-40FF-B12D-CED3D77D906A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CABA5D-8B11-4D6E-85CD-F0C4F33E8D42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE05F3FD-DAC9-4AAF-802D-5C032CA3FB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA574E59-BF4F-4E0D-813F-DCF52F99B078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22633A0B-23BA-4F56-B74F-E7FD17D7E000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1967,98 +1942,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5527,54 +5502,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="27">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="30">
-        <v>17</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1.124189921967994E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5587,25 +5514,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>303</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/CANDELARIA.xlsx
+++ b/CANDELARIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7AE252E-FDBF-4F65-83FC-5ACF495C6ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA493D7-8381-4C7F-BF3C-E0ABDC3EAC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{C4B71400-E3BB-4144-AAD1-9DBC7D830EBE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F345003F-8353-4909-8753-9F9DB014AF39}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB228EB-FAE3-47CE-B065-A174464472BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A74524B-EDD3-485E-A674-AB7607EDEBE7}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E64C689-4371-474E-B9FF-AF7213B5B99D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC45F527-F50B-48A1-9AA9-A3AEA3697C6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A6B0DA-497F-4C12-8782-0BEE822AA2B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323AF7FE-0177-4602-9959-A4350666EAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082BD6B1-7705-052C-75AB-4B57A7276AE3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5DB474-7E9B-AF28-CE6E-8900463B202B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD8A91C-449D-20D1-ABE1-13FA4D2E2D40}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6160D1CF-921D-D141-22E1-33A31658DF42}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66B791B-6F72-3322-2AC8-7CBAEA1A6DA7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB85F42-B7CF-EE2C-B672-43D4553152C4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A283AD38-1561-8DDE-F023-FE7DCA036B74}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3591E6AD-6B02-7A91-41F2-045CD7CB61F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4341BC9-9541-4D0E-C562-7CC28BB4F385}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A04B6B5-BA3C-B19A-7D16-A67EF1EF8763}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF960652-05E2-455E-B75A-032AE91ADF5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF00361-D145-492F-9AA3-BE7CB2C07DEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A477188C-DE3C-40FF-B12D-CED3D77D906A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E027F5CF-4296-406D-943F-054894597925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,50 +1599,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE05F3FD-DAC9-4AAF-802D-5C032CA3FB49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1930,7 +1886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22633A0B-23BA-4F56-B74F-E7FD17D7E000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A9245A-DD70-486E-886E-FA7F1B87ACAF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
